--- a/data/trans_orig/P34D_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P34D_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B25638A-3A53-44EE-BAEF-AF31DC14478C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2FA92FB-A6FF-445D-9B92-933588FB969E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{F3215168-C398-4E20-B7B3-AAC85BB9ED01}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6A498BC4-E376-4C2A-A997-9FA5C67550B0}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>17,64%</t>
   </si>
   <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
+    <t>11,11%</t>
+  </si>
+  <si>
+    <t>26,23%</t>
   </si>
   <si>
     <t>2,89%</t>
   </si>
   <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
   </si>
   <si>
     <t>9,35%</t>
   </si>
   <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>82,36%</t>
   </si>
   <si>
-    <t>73,42%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
+    <t>73,77%</t>
+  </si>
+  <si>
+    <t>88,89%</t>
   </si>
   <si>
     <t>97,11%</t>
   </si>
   <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
   </si>
   <si>
     <t>90,65%</t>
   </si>
   <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,19 +137,19 @@
     <t>19,33%</t>
   </si>
   <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>23,49%</t>
   </si>
   <si>
     <t>5,67%</t>
   </si>
   <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
   </si>
   <si>
     <t>12,24%</t>
@@ -158,31 +158,31 @@
     <t>10,18%</t>
   </si>
   <si>
-    <t>14,81%</t>
+    <t>14,87%</t>
   </si>
   <si>
     <t>80,67%</t>
   </si>
   <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
+    <t>76,51%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
   </si>
   <si>
     <t>94,33%</t>
   </si>
   <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
   </si>
   <si>
     <t>87,76%</t>
   </si>
   <si>
-    <t>85,19%</t>
+    <t>85,13%</t>
   </si>
   <si>
     <t>89,82%</t>
@@ -194,112 +194,112 @@
     <t>20,72%</t>
   </si>
   <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
   </si>
   <si>
     <t>7,51%</t>
   </si>
   <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
   </si>
   <si>
     <t>14,05%</t>
   </si>
   <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>15,99%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>84,01%</t>
+  </si>
+  <si>
+    <t>87,99%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
     <t>12,23%</t>
   </si>
   <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>80,95%</t>
   </si>
   <si>
     <t>87,77%</t>
   </si>
   <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
     <t>94,45%</t>
   </si>
   <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
   </si>
   <si>
     <t>89,96%</t>
   </si>
   <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -308,103 +308,103 @@
     <t>20,01%</t>
   </si>
   <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
+    <t>17,26%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
   </si>
   <si>
     <t>7,46%</t>
   </si>
   <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
+    <t>9,88%</t>
   </si>
   <si>
     <t>13,19%</t>
   </si>
   <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
+    <t>11,58%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
   </si>
   <si>
     <t>79,99%</t>
   </si>
   <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>82,74%</t>
   </si>
   <si>
     <t>92,54%</t>
   </si>
   <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
+    <t>90,12%</t>
   </si>
   <si>
     <t>86,81%</t>
   </si>
   <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>88,42%</t>
   </si>
   <si>
     <t>19,06%</t>
   </si>
   <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
   </si>
   <si>
     <t>6,6%</t>
   </si>
   <si>
-    <t>7,58%</t>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
   </si>
   <si>
     <t>12,47%</t>
   </si>
   <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
   </si>
   <si>
     <t>80,94%</t>
   </si>
   <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
   </si>
   <si>
     <t>93,4%</t>
   </si>
   <si>
-    <t>92,42%</t>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
   </si>
   <si>
     <t>87,53%</t>
   </si>
   <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -819,7 +819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4640F7B0-99C1-4287-8A22-8431941C1151}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A187C75-2DE9-4930-A055-03E08F895C8B}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1581,10 +1581,10 @@
         <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>253</v>
@@ -1593,13 +1593,13 @@
         <v>278769</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1614,28 +1614,28 @@
         <v>772236</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>1471</v>
       </c>
       <c r="I17" s="7">
-        <v>1062068</v>
+        <v>1062069</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="M17" s="7">
         <v>2314</v>
@@ -1644,13 +1644,13 @@
         <v>1834304</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1677,7 +1677,7 @@
         <v>1561</v>
       </c>
       <c r="I18" s="7">
-        <v>1147669</v>
+        <v>1147670</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1718,13 +1718,13 @@
         <v>645189</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>274</v>
@@ -1733,13 +1733,13 @@
         <v>251160</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>785</v>
@@ -1748,13 +1748,13 @@
         <v>896349</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1769,13 +1769,13 @@
         <v>2740039</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>5088</v>
@@ -1784,13 +1784,13 @@
         <v>3553642</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="M20" s="7">
         <v>7953</v>

--- a/data/trans_orig/P34D_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P34D_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2FA92FB-A6FF-445D-9B92-933588FB969E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB004C80-2C21-44FA-A3AC-5F70498E7DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6A498BC4-E376-4C2A-A997-9FA5C67550B0}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C6E5EF2C-B3E1-4FAC-9D50-F22786CBEBE1}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -131,7 +131,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>19,33%</t>
@@ -188,7 +188,7 @@
     <t>89,82%</t>
   </si>
   <si>
-    <t>10/50</t>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>20,72%</t>
@@ -245,7 +245,7 @@
     <t>87,99%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>15,43%</t>
@@ -819,7 +819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A187C75-2DE9-4930-A055-03E08F895C8B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2773201A-0FA8-4237-B565-9D5906B0A583}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/P34D_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P34D_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB004C80-2C21-44FA-A3AC-5F70498E7DD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C28F11F8-EA24-4A4A-8D37-56256E89D95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{C6E5EF2C-B3E1-4FAC-9D50-F22786CBEBE1}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7185680D-A705-4EF2-83BB-EDF896EEF907}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>17,64%</t>
   </si>
   <si>
-    <t>11,11%</t>
-  </si>
-  <si>
-    <t>26,23%</t>
+    <t>10,47%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
   </si>
   <si>
     <t>2,89%</t>
   </si>
   <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>7,03%</t>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
   </si>
   <si>
     <t>9,35%</t>
   </si>
   <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>82,36%</t>
   </si>
   <si>
-    <t>73,77%</t>
-  </si>
-  <si>
-    <t>88,89%</t>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>89,53%</t>
   </si>
   <si>
     <t>97,11%</t>
   </si>
   <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
   </si>
   <si>
     <t>90,65%</t>
   </si>
   <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,19 +137,19 @@
     <t>19,33%</t>
   </si>
   <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>23,49%</t>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
   </si>
   <si>
     <t>5,67%</t>
   </si>
   <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
   </si>
   <si>
     <t>12,24%</t>
@@ -158,31 +158,31 @@
     <t>10,18%</t>
   </si>
   <si>
-    <t>14,87%</t>
+    <t>14,81%</t>
   </si>
   <si>
     <t>80,67%</t>
   </si>
   <si>
-    <t>76,51%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
+    <t>76,32%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
   </si>
   <si>
     <t>94,33%</t>
   </si>
   <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
   </si>
   <si>
     <t>87,76%</t>
   </si>
   <si>
-    <t>85,13%</t>
+    <t>85,19%</t>
   </si>
   <si>
     <t>89,82%</t>
@@ -194,217 +194,217 @@
     <t>20,72%</t>
   </si>
   <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>14,05%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>94,01%</t>
+  </si>
+  <si>
+    <t>85,95%</t>
+  </si>
+  <si>
+    <t>83,89%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>84,57%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>89,96%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
     <t>17,21%</t>
   </si>
   <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>15,99%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>75,81%</t>
+    <t>23,32%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>13,19%</t>
+  </si>
+  <si>
+    <t>11,69%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>79,99%</t>
+  </si>
+  <si>
+    <t>76,68%</t>
   </si>
   <si>
     <t>82,79%</t>
   </si>
   <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>84,01%</t>
-  </si>
-  <si>
-    <t>87,99%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>80,95%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>23,52%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>11,58%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>76,48%</t>
-  </si>
-  <si>
-    <t>82,74%</t>
-  </si>
-  <si>
     <t>92,54%</t>
   </si>
   <si>
-    <t>90,12%</t>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
   </si>
   <si>
     <t>86,81%</t>
   </si>
   <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>88,42%</t>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>88,31%</t>
   </si>
   <si>
     <t>19,06%</t>
   </si>
   <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
+    <t>17,3%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
   </si>
   <si>
     <t>6,6%</t>
   </si>
   <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
+    <t>7,58%</t>
   </si>
   <si>
     <t>12,47%</t>
   </si>
   <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>13,4%</t>
+    <t>11,55%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
   </si>
   <si>
     <t>80,94%</t>
   </si>
   <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
+    <t>79,1%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
   </si>
   <si>
     <t>93,4%</t>
   </si>
   <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>94,36%</t>
+    <t>92,42%</t>
   </si>
   <si>
     <t>87,53%</t>
   </si>
   <si>
-    <t>86,6%</t>
-  </si>
-  <si>
-    <t>88,53%</t>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>88,45%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -819,7 +819,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2773201A-0FA8-4237-B565-9D5906B0A583}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2920881-D73D-4536-BD77-F694F9324326}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1581,10 +1581,10 @@
         <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>55</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>253</v>
@@ -1593,13 +1593,13 @@
         <v>278769</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1614,28 +1614,28 @@
         <v>772236</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>1471</v>
       </c>
       <c r="I17" s="7">
-        <v>1062069</v>
+        <v>1062068</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>2314</v>
@@ -1644,13 +1644,13 @@
         <v>1834304</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1677,7 +1677,7 @@
         <v>1561</v>
       </c>
       <c r="I18" s="7">
-        <v>1147670</v>
+        <v>1147669</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1718,13 +1718,13 @@
         <v>645189</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>274</v>
@@ -1733,13 +1733,13 @@
         <v>251160</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>109</v>
+        <v>35</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M19" s="7">
         <v>785</v>
@@ -1748,13 +1748,13 @@
         <v>896349</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -1769,13 +1769,13 @@
         <v>2740039</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>5088</v>
@@ -1784,13 +1784,13 @@
         <v>3553642</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>119</v>
+        <v>44</v>
       </c>
       <c r="M20" s="7">
         <v>7953</v>

--- a/data/trans_orig/P34D_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P34D_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C28F11F8-EA24-4A4A-8D37-56256E89D95A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFEAE914-8338-4992-AC26-91B129D66614}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7185680D-A705-4EF2-83BB-EDF896EEF907}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{34F590D0-B310-43AC-AEA6-8875F19BEB2F}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
   <si>
     <t>Población según si realizan en una semana normal alguna actividad física intensa o vigorosa en 2023 (Tasa respuesta: 99,94%)</t>
   </si>
@@ -65,346 +65,295 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>76,7%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>85,77%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
     <t>17,64%</t>
   </si>
   <si>
-    <t>10,47%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>No</t>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>23,2%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
   </si>
   <si>
     <t>82,36%</t>
   </si>
   <si>
-    <t>73,42%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>90,65%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>19,33%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>80,67%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>83,89%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
+    <t>76,8%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
   </si>
   <si>
     <t>92,34%</t>
   </si>
   <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>89,96%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>80,42%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>88,3%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>23,32%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>9,64%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>79,99%</t>
-  </si>
-  <si>
-    <t>76,68%</t>
-  </si>
-  <si>
-    <t>82,79%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>90,36%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>11,55%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>80,94%</t>
-  </si>
-  <si>
-    <t>79,1%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>88,45%</t>
+    <t>20,7%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>7,03%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>8,95%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>15,41%</t>
+  </si>
+  <si>
+    <t>79,3%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>92,97%</t>
+  </si>
+  <si>
+    <t>91,05%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>84,59%</t>
+  </si>
+  <si>
+    <t>88,52%</t>
+  </si>
+  <si>
+    <t>18,36%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>81,64%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>86,57%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -819,8 +768,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2920881-D73D-4536-BD77-F694F9324326}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75D99E29-3A4F-4001-856F-12FD65FA7CFB}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -937,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>17</v>
+        <v>103</v>
       </c>
       <c r="D4" s="7">
-        <v>17989</v>
+        <v>122185</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -952,10 +901,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="I4" s="7">
-        <v>3780</v>
+        <v>34297</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -967,10 +916,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>23</v>
+        <v>151</v>
       </c>
       <c r="N4" s="7">
-        <v>21769</v>
+        <v>156482</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -988,10 +937,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>101</v>
+        <v>627</v>
       </c>
       <c r="D5" s="7">
-        <v>83993</v>
+        <v>513256</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1003,10 +952,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>237</v>
+        <v>1190</v>
       </c>
       <c r="I5" s="7">
-        <v>126953</v>
+        <v>641073</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1018,10 +967,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>338</v>
+        <v>1817</v>
       </c>
       <c r="N5" s="7">
-        <v>210946</v>
+        <v>1154329</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1039,10 +988,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>730</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>635441</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1054,10 +1003,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>243</v>
+        <v>1238</v>
       </c>
       <c r="I6" s="7">
-        <v>130733</v>
+        <v>675370</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1069,10 +1018,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>361</v>
+        <v>1968</v>
       </c>
       <c r="N6" s="7">
-        <v>232715</v>
+        <v>1310811</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1092,10 +1041,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>86</v>
+        <v>158</v>
       </c>
       <c r="D7" s="7">
-        <v>106262</v>
+        <v>210458</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1107,10 +1056,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>42</v>
+        <v>87</v>
       </c>
       <c r="I7" s="7">
-        <v>33616</v>
+        <v>73432</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1122,10 +1071,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>128</v>
+        <v>245</v>
       </c>
       <c r="N7" s="7">
-        <v>139878</v>
+        <v>283890</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1143,10 +1092,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>526</v>
+        <v>806</v>
       </c>
       <c r="D8" s="7">
-        <v>443561</v>
+        <v>982406</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1158,10 +1107,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>953</v>
+        <v>1429</v>
       </c>
       <c r="I8" s="7">
-        <v>558939</v>
+        <v>884674</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1173,10 +1122,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>1479</v>
+        <v>2235</v>
       </c>
       <c r="N8" s="7">
-        <v>1002500</v>
+        <v>1867081</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1194,10 +1143,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>612</v>
+        <v>964</v>
       </c>
       <c r="D9" s="7">
-        <v>549823</v>
+        <v>1192864</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1209,10 +1158,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>995</v>
+        <v>1516</v>
       </c>
       <c r="I9" s="7">
-        <v>592555</v>
+        <v>958106</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1224,10 +1173,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1607</v>
+        <v>2480</v>
       </c>
       <c r="N9" s="7">
-        <v>1142378</v>
+        <v>2150971</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1247,10 +1196,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>158</v>
+        <v>87</v>
       </c>
       <c r="D10" s="7">
-        <v>215321</v>
+        <v>110906</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1262,10 +1211,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="I10" s="7">
-        <v>79617</v>
+        <v>44336</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1277,10 +1226,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>245</v>
+        <v>136</v>
       </c>
       <c r="N10" s="7">
-        <v>294937</v>
+        <v>155242</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1298,10 +1247,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>806</v>
+        <v>589</v>
       </c>
       <c r="D11" s="7">
-        <v>823927</v>
+        <v>593774</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1313,10 +1262,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>1429</v>
+        <v>998</v>
       </c>
       <c r="I11" s="7">
-        <v>979857</v>
+        <v>889030</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1328,10 +1277,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>2235</v>
+        <v>1587</v>
       </c>
       <c r="N11" s="7">
-        <v>1803785</v>
+        <v>1482804</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1349,10 +1298,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>964</v>
+        <v>676</v>
       </c>
       <c r="D12" s="7">
-        <v>1039248</v>
+        <v>704680</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1364,10 +1313,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1516</v>
+        <v>1047</v>
       </c>
       <c r="I12" s="7">
-        <v>1059474</v>
+        <v>933366</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1379,10 +1328,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2480</v>
+        <v>1723</v>
       </c>
       <c r="N12" s="7">
-        <v>2098722</v>
+        <v>1638046</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1402,10 +1351,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>87</v>
+        <v>163</v>
       </c>
       <c r="D13" s="7">
-        <v>112450</v>
+        <v>191831</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -1417,10 +1366,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>49</v>
+        <v>90</v>
       </c>
       <c r="I13" s="7">
-        <v>48546</v>
+        <v>76775</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -1432,10 +1381,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>136</v>
+        <v>253</v>
       </c>
       <c r="N13" s="7">
-        <v>160996</v>
+        <v>268605</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -1453,10 +1402,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>589</v>
+        <v>843</v>
       </c>
       <c r="D14" s="7">
-        <v>616322</v>
+        <v>735000</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -1468,10 +1417,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>998</v>
+        <v>1471</v>
       </c>
       <c r="I14" s="7">
-        <v>825825</v>
+        <v>1015818</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -1483,10 +1432,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>1587</v>
+        <v>2314</v>
       </c>
       <c r="N14" s="7">
-        <v>1442146</v>
+        <v>1750819</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -1504,10 +1453,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>676</v>
+        <v>1006</v>
       </c>
       <c r="D15" s="7">
-        <v>728772</v>
+        <v>926831</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -1519,10 +1468,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1047</v>
+        <v>1561</v>
       </c>
       <c r="I15" s="7">
-        <v>874371</v>
+        <v>1092593</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1534,10 +1483,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1723</v>
+        <v>2567</v>
       </c>
       <c r="N15" s="7">
-        <v>1603142</v>
+        <v>2019424</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1551,55 +1500,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>163</v>
+        <v>511</v>
       </c>
       <c r="D16" s="7">
-        <v>193167</v>
+        <v>635380</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>274</v>
+      </c>
+      <c r="I16" s="7">
+        <v>228839</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>90</v>
-      </c>
-      <c r="I16" s="7">
-        <v>85601</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>785</v>
+      </c>
+      <c r="N16" s="7">
+        <v>864219</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>253</v>
-      </c>
-      <c r="N16" s="7">
-        <v>278769</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1608,49 +1557,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>843</v>
+        <v>2865</v>
       </c>
       <c r="D17" s="7">
-        <v>772236</v>
+        <v>2824437</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>5088</v>
+      </c>
+      <c r="I17" s="7">
+        <v>3430596</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>1471</v>
-      </c>
-      <c r="I17" s="7">
-        <v>1062068</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>7953</v>
+      </c>
+      <c r="N17" s="7">
+        <v>6255033</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="7">
-        <v>2314</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1834304</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1659,10 +1608,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1006</v>
+        <v>3376</v>
       </c>
       <c r="D18" s="7">
-        <v>965403</v>
+        <v>3459817</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -1674,10 +1623,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1561</v>
+        <v>5362</v>
       </c>
       <c r="I18" s="7">
-        <v>1147669</v>
+        <v>3659435</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1689,10 +1638,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2567</v>
+        <v>8738</v>
       </c>
       <c r="N18" s="7">
-        <v>2113073</v>
+        <v>7119252</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1705,171 +1654,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>511</v>
-      </c>
-      <c r="D19" s="7">
-        <v>645189</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>274</v>
-      </c>
-      <c r="I19" s="7">
-        <v>251160</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="M19" s="7">
-        <v>785</v>
-      </c>
-      <c r="N19" s="7">
-        <v>896349</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2865</v>
-      </c>
-      <c r="D20" s="7">
-        <v>2740039</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="H20" s="7">
-        <v>5088</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3553642</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="M20" s="7">
-        <v>7953</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6293681</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3376</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3385228</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5362</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3804802</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8738</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7190030</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
